--- a/netkeiba/test.xlsx
+++ b/netkeiba/test.xlsx
@@ -8,23 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yuto\Documents\GitHub\test_slot\netkeiba\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C050488E-7C5D-4669-AC65-5FA727A59F67}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{5A05CC27-2639-41CB-8934-F1CAEC96B0B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">test!$A$1:$FD$1</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">test!$A$2:$FD$2</definedName>
-  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="37">
   <si>
     <t>枠番</t>
   </si>
@@ -129,6 +125,14 @@
   </si>
   <si>
     <t>着差</t>
+  </si>
+  <si>
+    <t>epoch:30</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>epoch:1000 sigsig</t>
+    <phoneticPr fontId="18"/>
   </si>
 </sst>
 </file>
@@ -721,8 +725,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2002,7 +2009,1236 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>test!$A$1:$FD$1</c:f>
+              <c:strCache>
+                <c:ptCount val="160"/>
+                <c:pt idx="0">
+                  <c:v>枠番</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>馬番</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>中週</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>体重</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>体重増減</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>牡</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>牝</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>セ</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>馬齢</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>斤量</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>札幌</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>函館</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>福島</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>新潟</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>東京</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>中山</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>中京</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>京都</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>阪神</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>小倉</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>人気</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>芝ダ</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>距離</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>タイム</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>良</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>稍</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>重</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>不</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>頭数</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>馬番</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>人気</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>斤量</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>通過順1</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>通過順2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>通過順3</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>通過順4</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3ハロン</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>体重</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>体重増減</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>着差</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>札幌</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>函館</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>福島</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>新潟</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>東京</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>中山</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>中京</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>京都</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>阪神</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>小倉</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>人気</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>芝ダ</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>距離</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>タイム</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>良</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>稍</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>重</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>不</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>頭数</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>馬番</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>人気</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>斤量</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>通過順1</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>通過順2</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>通過順3</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>通過順4</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>3ハロン</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>体重</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>体重増減</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>着差</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>札幌</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>函館</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>福島</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>新潟</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>東京</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>中山</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>中京</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>京都</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>阪神</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>小倉</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>人気</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>芝ダ</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>距離</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>タイム</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>良</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>稍</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>重</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>不</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>頭数</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>馬番</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>人気</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>斤量</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>通過順1</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>通過順2</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>通過順3</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>通過順4</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>3ハロン</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>体重</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>体重増減</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>着差</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>札幌</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>函館</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>福島</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>新潟</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>東京</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>中山</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>中京</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>京都</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>阪神</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>小倉</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>人気</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>芝ダ</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>距離</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>タイム</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>良</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>稍</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>重</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>不</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>頭数</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>馬番</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>人気</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>斤量</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>通過順1</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>通過順2</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>通過順3</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>通過順4</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>3ハロン</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>体重</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>体重増減</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>着差</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>札幌</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>函館</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>福島</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>新潟</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>東京</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>中山</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>中京</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>京都</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>阪神</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>小倉</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>人気</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>芝ダ</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>距離</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>タイム</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>良</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>稍</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>重</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>不</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>頭数</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>馬番</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>人気</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>斤量</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>通過順1</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>通過順2</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>通過順3</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>通過順4</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>3ハロン</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>体重</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>体重増減</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>着差</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>test!$A$3:$FD$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="160"/>
+                <c:pt idx="0">
+                  <c:v>6.7430529999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.5527027000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.5075319999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.2643925000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.0405650000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.6626267999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.4231189999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.7392765000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.3375790000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.1355719999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.7136369999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6.6686460000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6.7659950000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8.1870329999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7.5998445999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7.0202722999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6.6337762000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6.5677823E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6.5363636000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>6.6231972999999996E-3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>9.2817869999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>7.090903E-3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>6.9263735999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>6.6326353999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>6.1140500000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>6.5572319999999996E-3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>6.5438800000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>7.5735170000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>7.0152623000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>7.2035220000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>6.8369633999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>6.9468610000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>7.117656E-3</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>7.0096906E-3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>6.4770616999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>6.5074204E-3</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>6.2537870000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>6.4510629999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>7.5489729999999996E-3</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>7.0223035000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>5.8195284000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>6.4392499999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>6.528659E-3</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>6.6788560000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>6.8643790000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>6.6485429999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>7.7441413999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>6.928549E-3</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>6.7742276000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>7.6811756000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>6.3492395000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>6.0020070000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>7.2391349999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>6.7729848000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>8.1079640000000005E-3</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>6.0121957000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>7.228628E-3</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>7.2192856999999996E-3</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>7.1980986000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>8.3161789999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>6.5900628000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>7.3311725000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>7.1989222999999996E-3</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>6.6762970000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>7.6563270000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>8.8003739999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>6.5893903000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>7.7279582999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>6.6908590000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>6.9921706E-3</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>6.8801436999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>6.1619747000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>6.2557730000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>7.1137435999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>6.9745409999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>6.8526960000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>6.0516815000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>6.7617959999999996E-3</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>6.8511552999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>6.4912475999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>6.6852429999999996E-3</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>6.7018679999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>6.3658235999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>7.1920585E-3</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>7.6779980000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>7.0592780000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>6.1008562000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>6.6503426000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>7.1640395999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>6.1643486999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>6.4536193000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>6.5713226999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>6.5637250000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>6.5065590000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>6.9379469999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>6.2233080000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>7.0140690000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>6.2825340000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>6.7861290000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>6.9278100000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>6.5446076999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>6.6496289999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>6.8153529999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>6.8159633999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>7.4233585000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>5.6229625000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>7.3399544000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>7.3395976999999996E-3</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>7.3752970000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>6.5324720000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>8.0963019999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>5.8255247000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>6.8174545000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>8.164981E-3</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>6.4777649999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>7.1785130000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>7.5759794999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>6.2702866000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>6.4893149999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>6.2356516999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>7.1198140000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>6.2895002999999996E-3</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>6.7828799999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>7.6505820000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>7.7432604000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>7.5664740000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>6.1953470000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>6.5469815999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>6.9064579999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>7.4016639999999996E-3</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>7.0597063999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>6.4133317000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>6.1162680000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>7.8505099999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>7.4668903999999996E-3</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>6.4289459999999996E-3</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>6.8892752999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>6.5794195999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>6.8235290000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>6.7095445000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>6.8226060000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>6.1042112999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>7.1795940000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>7.1613863000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>7.9962330000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>6.7233079999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>6.0118157E-3</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>6.8406537000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>6.8240133E-3</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>8.0622939999999994E-3</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>7.3501449999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>7.8730469999999993E-3</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>6.5798489999999996E-3</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>6.4461650000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>7.2590624999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>7.1162702999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>6.5222667000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>6.3707996000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>6.4510540000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>7.5260797000000004E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-68C5-478E-8E81-0723B9B27CA1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="250749048"/>
+        <c:axId val="250749704"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="250749048"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="250749704"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="250749704"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="250749048"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -2545,20 +3781,523 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:colOff>49696</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>153642</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>535470</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>39342</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2578,6 +4317,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>16565</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>77857</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>178905</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="グラフ 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79D31BEB-E290-4B80-BA5F-5610976BFBBD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2883,10 +4658,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:FD2"/>
+  <dimension ref="A1:FD42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD2"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3855,9 +5630,511 @@
         <v>9.3981334999999992E-3</v>
       </c>
     </row>
+    <row r="3" spans="1:160" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <v>6.7430529999999997E-3</v>
+      </c>
+      <c r="B3">
+        <v>6.5527027000000003E-3</v>
+      </c>
+      <c r="C3">
+        <v>6.5075319999999999E-3</v>
+      </c>
+      <c r="D3">
+        <v>7.2643925000000003E-3</v>
+      </c>
+      <c r="E3">
+        <v>7.0405650000000004E-3</v>
+      </c>
+      <c r="F3">
+        <v>6.6626267999999999E-3</v>
+      </c>
+      <c r="G3">
+        <v>6.4231189999999997E-3</v>
+      </c>
+      <c r="H3">
+        <v>6.7392765000000004E-3</v>
+      </c>
+      <c r="I3">
+        <v>7.3375790000000003E-3</v>
+      </c>
+      <c r="J3">
+        <v>7.1355719999999997E-3</v>
+      </c>
+      <c r="K3">
+        <v>6.7136369999999997E-3</v>
+      </c>
+      <c r="L3">
+        <v>6.6686460000000003E-3</v>
+      </c>
+      <c r="M3">
+        <v>6.7659950000000003E-3</v>
+      </c>
+      <c r="N3">
+        <v>8.1870329999999998E-3</v>
+      </c>
+      <c r="O3">
+        <v>7.5998445999999999E-3</v>
+      </c>
+      <c r="P3">
+        <v>7.0202722999999998E-3</v>
+      </c>
+      <c r="Q3">
+        <v>6.6337762000000002E-3</v>
+      </c>
+      <c r="R3">
+        <v>6.5677823E-3</v>
+      </c>
+      <c r="S3">
+        <v>6.5363636000000001E-3</v>
+      </c>
+      <c r="T3">
+        <v>6.6231972999999996E-3</v>
+      </c>
+      <c r="U3">
+        <v>9.2817869999999997E-3</v>
+      </c>
+      <c r="V3">
+        <v>7.090903E-3</v>
+      </c>
+      <c r="W3">
+        <v>6.9263735999999998E-3</v>
+      </c>
+      <c r="X3">
+        <v>6.6326353999999997E-3</v>
+      </c>
+      <c r="Y3">
+        <v>6.1140500000000002E-3</v>
+      </c>
+      <c r="Z3">
+        <v>6.5572319999999996E-3</v>
+      </c>
+      <c r="AA3">
+        <v>6.5438800000000002E-3</v>
+      </c>
+      <c r="AB3">
+        <v>7.5735170000000001E-3</v>
+      </c>
+      <c r="AC3">
+        <v>7.0152623000000001E-3</v>
+      </c>
+      <c r="AD3">
+        <v>7.2035220000000004E-3</v>
+      </c>
+      <c r="AE3">
+        <v>6.8369633999999999E-3</v>
+      </c>
+      <c r="AF3">
+        <v>6.9468610000000004E-3</v>
+      </c>
+      <c r="AG3">
+        <v>7.117656E-3</v>
+      </c>
+      <c r="AH3">
+        <v>7.0096906E-3</v>
+      </c>
+      <c r="AI3">
+        <v>6.4770616999999999E-3</v>
+      </c>
+      <c r="AJ3">
+        <v>6.5074204E-3</v>
+      </c>
+      <c r="AK3">
+        <v>6.2537870000000002E-3</v>
+      </c>
+      <c r="AL3">
+        <v>6.4510629999999999E-3</v>
+      </c>
+      <c r="AM3">
+        <v>7.5489729999999996E-3</v>
+      </c>
+      <c r="AN3">
+        <v>7.0223035000000003E-3</v>
+      </c>
+      <c r="AO3">
+        <v>5.8195284000000002E-3</v>
+      </c>
+      <c r="AP3">
+        <v>6.4392499999999997E-3</v>
+      </c>
+      <c r="AQ3">
+        <v>6.528659E-3</v>
+      </c>
+      <c r="AR3">
+        <v>6.6788560000000004E-3</v>
+      </c>
+      <c r="AS3">
+        <v>6.8643790000000003E-3</v>
+      </c>
+      <c r="AT3">
+        <v>6.6485429999999998E-3</v>
+      </c>
+      <c r="AU3">
+        <v>7.7441413999999997E-3</v>
+      </c>
+      <c r="AV3">
+        <v>6.928549E-3</v>
+      </c>
+      <c r="AW3">
+        <v>6.7742276000000001E-3</v>
+      </c>
+      <c r="AX3">
+        <v>7.6811756000000004E-3</v>
+      </c>
+      <c r="AY3">
+        <v>6.3492395000000002E-3</v>
+      </c>
+      <c r="AZ3">
+        <v>6.0020070000000002E-3</v>
+      </c>
+      <c r="BA3">
+        <v>7.2391349999999998E-3</v>
+      </c>
+      <c r="BB3">
+        <v>6.7729848000000004E-3</v>
+      </c>
+      <c r="BC3">
+        <v>8.1079640000000005E-3</v>
+      </c>
+      <c r="BD3">
+        <v>6.0121957000000004E-3</v>
+      </c>
+      <c r="BE3">
+        <v>7.228628E-3</v>
+      </c>
+      <c r="BF3">
+        <v>7.2192856999999996E-3</v>
+      </c>
+      <c r="BG3">
+        <v>7.1980986000000002E-3</v>
+      </c>
+      <c r="BH3">
+        <v>8.3161789999999999E-3</v>
+      </c>
+      <c r="BI3">
+        <v>6.5900628000000001E-3</v>
+      </c>
+      <c r="BJ3">
+        <v>7.3311725000000001E-3</v>
+      </c>
+      <c r="BK3">
+        <v>7.1989222999999996E-3</v>
+      </c>
+      <c r="BL3">
+        <v>6.6762970000000003E-3</v>
+      </c>
+      <c r="BM3">
+        <v>7.6563270000000001E-3</v>
+      </c>
+      <c r="BN3">
+        <v>8.8003739999999997E-3</v>
+      </c>
+      <c r="BO3">
+        <v>6.5893903000000002E-3</v>
+      </c>
+      <c r="BP3">
+        <v>7.7279582999999997E-3</v>
+      </c>
+      <c r="BQ3">
+        <v>6.6908590000000004E-3</v>
+      </c>
+      <c r="BR3">
+        <v>6.9921706E-3</v>
+      </c>
+      <c r="BS3">
+        <v>6.8801436999999998E-3</v>
+      </c>
+      <c r="BT3">
+        <v>6.1619747000000004E-3</v>
+      </c>
+      <c r="BU3">
+        <v>6.2557730000000001E-3</v>
+      </c>
+      <c r="BV3">
+        <v>7.1137435999999998E-3</v>
+      </c>
+      <c r="BW3">
+        <v>6.9745409999999999E-3</v>
+      </c>
+      <c r="BX3">
+        <v>6.8526960000000001E-3</v>
+      </c>
+      <c r="BY3">
+        <v>6.0516815000000003E-3</v>
+      </c>
+      <c r="BZ3">
+        <v>6.7617959999999996E-3</v>
+      </c>
+      <c r="CA3">
+        <v>6.8511552999999999E-3</v>
+      </c>
+      <c r="CB3">
+        <v>6.4912475999999997E-3</v>
+      </c>
+      <c r="CC3">
+        <v>6.6852429999999996E-3</v>
+      </c>
+      <c r="CD3">
+        <v>6.7018679999999997E-3</v>
+      </c>
+      <c r="CE3">
+        <v>6.3658235999999998E-3</v>
+      </c>
+      <c r="CF3">
+        <v>7.1920585E-3</v>
+      </c>
+      <c r="CG3">
+        <v>7.6779980000000001E-3</v>
+      </c>
+      <c r="CH3">
+        <v>7.0592780000000004E-3</v>
+      </c>
+      <c r="CI3">
+        <v>6.1008562000000001E-3</v>
+      </c>
+      <c r="CJ3">
+        <v>6.6503426000000003E-3</v>
+      </c>
+      <c r="CK3">
+        <v>7.1640395999999999E-3</v>
+      </c>
+      <c r="CL3">
+        <v>6.1643486999999999E-3</v>
+      </c>
+      <c r="CM3">
+        <v>6.4536193000000004E-3</v>
+      </c>
+      <c r="CN3">
+        <v>6.5713226999999999E-3</v>
+      </c>
+      <c r="CO3">
+        <v>6.5637250000000003E-3</v>
+      </c>
+      <c r="CP3">
+        <v>6.5065590000000003E-3</v>
+      </c>
+      <c r="CQ3">
+        <v>6.9379469999999999E-3</v>
+      </c>
+      <c r="CR3">
+        <v>6.2233080000000003E-3</v>
+      </c>
+      <c r="CS3">
+        <v>7.0140690000000004E-3</v>
+      </c>
+      <c r="CT3">
+        <v>6.2825340000000002E-3</v>
+      </c>
+      <c r="CU3">
+        <v>6.7861290000000001E-3</v>
+      </c>
+      <c r="CV3">
+        <v>6.9278100000000004E-3</v>
+      </c>
+      <c r="CW3">
+        <v>6.5446076999999998E-3</v>
+      </c>
+      <c r="CX3">
+        <v>6.6496289999999998E-3</v>
+      </c>
+      <c r="CY3">
+        <v>6.8153529999999997E-3</v>
+      </c>
+      <c r="CZ3">
+        <v>6.8159633999999997E-3</v>
+      </c>
+      <c r="DA3">
+        <v>7.4233585000000003E-3</v>
+      </c>
+      <c r="DB3">
+        <v>5.6229625000000002E-3</v>
+      </c>
+      <c r="DC3">
+        <v>7.3399544000000002E-3</v>
+      </c>
+      <c r="DD3">
+        <v>7.3395976999999996E-3</v>
+      </c>
+      <c r="DE3">
+        <v>7.3752970000000003E-3</v>
+      </c>
+      <c r="DF3">
+        <v>6.5324720000000001E-3</v>
+      </c>
+      <c r="DG3">
+        <v>8.0963019999999997E-3</v>
+      </c>
+      <c r="DH3">
+        <v>5.8255247000000001E-3</v>
+      </c>
+      <c r="DI3">
+        <v>6.8174545000000003E-3</v>
+      </c>
+      <c r="DJ3">
+        <v>8.164981E-3</v>
+      </c>
+      <c r="DK3">
+        <v>6.4777649999999999E-3</v>
+      </c>
+      <c r="DL3">
+        <v>7.1785130000000001E-3</v>
+      </c>
+      <c r="DM3">
+        <v>7.5759794999999998E-3</v>
+      </c>
+      <c r="DN3">
+        <v>6.2702866000000001E-3</v>
+      </c>
+      <c r="DO3">
+        <v>6.4893149999999998E-3</v>
+      </c>
+      <c r="DP3">
+        <v>6.2356516999999998E-3</v>
+      </c>
+      <c r="DQ3">
+        <v>7.1198140000000004E-3</v>
+      </c>
+      <c r="DR3">
+        <v>6.2895002999999996E-3</v>
+      </c>
+      <c r="DS3">
+        <v>6.7828799999999998E-3</v>
+      </c>
+      <c r="DT3">
+        <v>7.6505820000000004E-3</v>
+      </c>
+      <c r="DU3">
+        <v>7.7432604000000002E-3</v>
+      </c>
+      <c r="DV3">
+        <v>7.5664740000000001E-3</v>
+      </c>
+      <c r="DW3">
+        <v>6.1953470000000004E-3</v>
+      </c>
+      <c r="DX3">
+        <v>6.5469815999999997E-3</v>
+      </c>
+      <c r="DY3">
+        <v>6.9064579999999999E-3</v>
+      </c>
+      <c r="DZ3">
+        <v>7.4016639999999996E-3</v>
+      </c>
+      <c r="EA3">
+        <v>7.0597063999999999E-3</v>
+      </c>
+      <c r="EB3">
+        <v>6.4133317000000002E-3</v>
+      </c>
+      <c r="EC3">
+        <v>6.1162680000000002E-3</v>
+      </c>
+      <c r="ED3">
+        <v>7.8505099999999998E-3</v>
+      </c>
+      <c r="EE3">
+        <v>7.4668903999999996E-3</v>
+      </c>
+      <c r="EF3">
+        <v>6.4289459999999996E-3</v>
+      </c>
+      <c r="EG3">
+        <v>6.8892752999999999E-3</v>
+      </c>
+      <c r="EH3">
+        <v>6.5794195999999998E-3</v>
+      </c>
+      <c r="EI3">
+        <v>6.8235290000000001E-3</v>
+      </c>
+      <c r="EJ3">
+        <v>6.7095445000000002E-3</v>
+      </c>
+      <c r="EK3">
+        <v>6.8226060000000002E-3</v>
+      </c>
+      <c r="EL3">
+        <v>6.1042112999999997E-3</v>
+      </c>
+      <c r="EM3">
+        <v>7.1795940000000001E-3</v>
+      </c>
+      <c r="EN3">
+        <v>7.1613863000000002E-3</v>
+      </c>
+      <c r="EO3">
+        <v>7.9962330000000002E-3</v>
+      </c>
+      <c r="EP3">
+        <v>6.7233079999999999E-3</v>
+      </c>
+      <c r="EQ3">
+        <v>6.0118157E-3</v>
+      </c>
+      <c r="ER3">
+        <v>6.8406537000000002E-3</v>
+      </c>
+      <c r="ES3">
+        <v>6.8240133E-3</v>
+      </c>
+      <c r="ET3">
+        <v>8.0622939999999994E-3</v>
+      </c>
+      <c r="EU3">
+        <v>7.3501449999999998E-3</v>
+      </c>
+      <c r="EV3">
+        <v>7.8730469999999993E-3</v>
+      </c>
+      <c r="EW3">
+        <v>6.5798489999999996E-3</v>
+      </c>
+      <c r="EX3">
+        <v>6.4461650000000002E-3</v>
+      </c>
+      <c r="EY3">
+        <v>7.2590624999999999E-3</v>
+      </c>
+      <c r="EZ3">
+        <v>7.1162702999999997E-3</v>
+      </c>
+      <c r="FA3">
+        <v>6.5222667000000003E-3</v>
+      </c>
+      <c r="FB3">
+        <v>6.3707996000000001E-3</v>
+      </c>
+      <c r="FC3">
+        <v>6.4510540000000003E-3</v>
+      </c>
+      <c r="FD3">
+        <v>7.5260797000000004E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:160" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A19" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="40" spans="4:4" x14ac:dyDescent="0.4">
+      <c r="D40" s="1"/>
+    </row>
+    <row r="41" spans="4:4" x14ac:dyDescent="0.4">
+      <c r="D41" s="1"/>
+    </row>
+    <row r="42" spans="4:4" x14ac:dyDescent="0.4">
+      <c r="D42" s="1"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="18"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>